--- a/papers/AA_KEY.xlsx
+++ b/papers/AA_KEY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexcarriero/Desktop/The/papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF48B00-D226-6549-BFD9-FA7A503EFBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE388B18-FEB7-0845-B73C-7A5B6227C92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="500" windowWidth="17480" windowHeight="15820" xr2:uid="{69FFC4BD-2325-954D-A760-8595B1B44146}"/>
+    <workbookView xWindow="1120" yWindow="500" windowWidth="19340" windowHeight="15800" xr2:uid="{69FFC4BD-2325-954D-A760-8595B1B44146}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>The harm of class imbalance corrections for risk
 prediction models: illustration and simulation using
@@ -180,12 +180,81 @@
 * considers pre-processing methods, ensemble learning, algorithm-based, cost-sensitive
 * very nice summary of all methods pg. 787</t>
   </si>
+  <si>
+    <t>Morris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using simulation studies to evaluate statistical methods </t>
+  </si>
+  <si>
+    <t>Tarawneh</t>
+  </si>
+  <si>
+    <t>Stop Oversampling for Class Imbalance Learning: A Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulation Study Design (ADEMP) 
+ * Aims 
+* Data-Generating Mechanism 
+* Estimand 
+* Methods 
+* Performance Measures
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Oversampling is the most common class imbalance correction applied in practice. 
+* 70 + methods are oversampling methods are compared, using a variety of classifiers. 
+* The common mistake is to feed data to a classifier, assuming that all of the examples are realistic and labeled based on reality. The classifier has no other knowledge and learns based on the false assumption, which produces excellent results in labs but unexpected behavior in real-world scenarios.
+* When applied to real- world tasks, it is possible that the entire machine learning system fails spectacularly, particularly in critical applications such as medical applications.
+* We seriously encourage using ensemble approaches to problems of class imbalance, such as Easy Ensemble, Random Data Partitioning... because these methods do not create data out of thin air and do not, as the Undersampling approach suggests, deny the learning process from critical data.
+</t>
+  </si>
+  <si>
+    <t>Elor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To SMOTE or not to SMOTE? </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* compares performance of SMOTE in combination with  "weak" classifiers vs. "state of the art (SOTA)" classifiers 
+* demonstrates that oversampling offers benefit to weak classifiers but </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> to SOTA classifiers. </t>
+    </r>
+  </si>
+  <si>
+    <t>Özkan</t>
+  </si>
+  <si>
+    <t>Effect of data preprocessing on ensemble learning for classification in disease diagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Performance of Ensemble Algorithms was improved by utilizing pre-processing methods. 
+* Considered running time as a metric !
+* </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -200,6 +269,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="5">
@@ -249,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -277,6 +357,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2216DDF6-EAC6-CC45-94D7-815B60E7F5A9}">
   <dimension ref="A1:D1142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="93" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -810,52 +902,85 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+    <row r="15" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>2018</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>

--- a/papers/AA_KEY.xlsx
+++ b/papers/AA_KEY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexcarriero/Desktop/The/papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE388B18-FEB7-0845-B73C-7A5B6227C92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330D119B-EC53-1C4E-8CD6-7D92B02D0EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="19340" windowHeight="15800" xr2:uid="{69FFC4BD-2325-954D-A760-8595B1B44146}"/>
+    <workbookView xWindow="1120" yWindow="500" windowWidth="18820" windowHeight="16000" xr2:uid="{69FFC4BD-2325-954D-A760-8595B1B44146}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,15 +193,6 @@
     <t>Stop Oversampling for Class Imbalance Learning: A Review</t>
   </si>
   <si>
-    <t xml:space="preserve">Simulation Study Design (ADEMP) 
- * Aims 
-* Data-Generating Mechanism 
-* Estimand 
-* Methods 
-* Performance Measures
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">* Oversampling is the most common class imbalance correction applied in practice. 
 * 70 + methods are oversampling methods are compared, using a variety of classifiers. 
 * The common mistake is to feed data to a classifier, assuming that all of the examples are realistic and labeled based on reality. The classifier has no other knowledge and learns based on the false assumption, which produces excellent results in labs but unexpected behavior in real-world scenarios.
@@ -246,8 +237,16 @@
   </si>
   <si>
     <t xml:space="preserve">* Performance of Ensemble Algorithms was improved by utilizing pre-processing methods. 
-* Considered running time as a metric !
-* </t>
+* Considered running time as a metric. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulation Study Design (ADEMP) 
+ *Aims 
+* Data-Generating Mechanism 
+* Estimand 
+* Methods 
+* Performance Measures
+</t>
   </si>
 </sst>
 </file>
@@ -695,7 +694,7 @@
   <dimension ref="A1:D1142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -902,7 +901,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>2018</v>
       </c>
@@ -913,7 +912,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="408" customHeight="1" x14ac:dyDescent="0.2">
@@ -927,7 +926,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -935,27 +934,27 @@
         <v>2022</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>2022</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">

--- a/papers/AA_KEY.xlsx
+++ b/papers/AA_KEY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexcarriero/Desktop/The/papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5B6240-9E49-5C43-A44A-AD25178403C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E17D109-7E5D-D84D-AFD6-1E5DF1BE0761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="540" windowWidth="24760" windowHeight="15820" xr2:uid="{69FFC4BD-2325-954D-A760-8595B1B44146}"/>
   </bookViews>
@@ -1138,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2216DDF6-EAC6-CC45-94D7-815B60E7F5A9}">
   <dimension ref="A1:G760"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" zoomScale="88" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="88" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/papers/AA_KEY.xlsx
+++ b/papers/AA_KEY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexcarriero/Desktop/The/papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E17D109-7E5D-D84D-AFD6-1E5DF1BE0761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4837DA-4B2C-E04E-9D46-86CA1FCE3594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="540" windowWidth="24760" windowHeight="15820" xr2:uid="{69FFC4BD-2325-954D-A760-8595B1B44146}"/>
+    <workbookView xWindow="4040" yWindow="500" windowWidth="24760" windowHeight="15820" xr2:uid="{69FFC4BD-2325-954D-A760-8595B1B44146}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
   <si>
     <t>The harm of class imbalance corrections for risk
 prediction models: illustration and simulation using
@@ -662,6 +662,24 @@
   </si>
   <si>
     <t>https://doi.org/10.1146/annurev-economics-080217-053433</t>
+  </si>
+  <si>
+    <t>Calculating the sample size required for developing a clinical prediction model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">more info for sample size calculations
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1136/bmj.m441  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @article{riley,
+	author = {Riley, Richard D and Ensor, Joie and Snell, Kym I E and Harrell, Frank E and Martin, Glen P and Reitsma, Johannes B and Moons, Karel G M and Collins, Gary and van Smeden, Maarten},
+	journal = {BMJ},
+	title = {Calculating the sample size required for developing a clinical prediction model},
+	volume = {368},
+	year = {2020}}</t>
   </si>
 </sst>
 </file>
@@ -754,7 +772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -812,6 +830,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1136,10 +1157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2216DDF6-EAC6-CC45-94D7-815B60E7F5A9}">
-  <dimension ref="A1:G760"/>
+  <dimension ref="A1:G761"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="88" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="88" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1553,90 +1574,105 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="272" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="187" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>101</v>
+      <c r="C21" s="22" t="s">
+        <v>120</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>102</v>
       </c>
       <c r="E21" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="272" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>2022</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F22" s="19" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="289" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
+    <row r="23" spans="1:6" ht="289" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
         <v>2020</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B23" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D23" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E23" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F23" s="19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="187" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
+    <row r="24" spans="1:6" ht="187" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
         <v>2022</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B24" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D24" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E24" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F24" s="19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="204" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
+    <row r="25" spans="1:6" ht="204" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
         <v>2019</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B25" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E25" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F25" s="19" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="6"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" s="6"/>
@@ -2283,10 +2319,10 @@
       <c r="C154" s="3"/>
       <c r="D154" s="6"/>
     </row>
-    <row r="611" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B611" s="6"/>
-      <c r="C611" s="3"/>
-      <c r="D611" s="6"/>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B155" s="6"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="6"/>
     </row>
     <row r="612" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B612" s="6"/>
@@ -3032,6 +3068,11 @@
       <c r="B760" s="6"/>
       <c r="C760" s="3"/>
       <c r="D760" s="6"/>
+    </row>
+    <row r="761" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B761" s="6"/>
+      <c r="C761" s="3"/>
+      <c r="D761" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3049,10 +3090,11 @@
     <hyperlink ref="F15" r:id="rId12" xr:uid="{98D2F820-DA6E-964C-ABD6-7577440B5F93}"/>
     <hyperlink ref="F18" r:id="rId13" xr:uid="{1A5F1DC7-279C-5B47-8DA1-BB725E252D2D}"/>
     <hyperlink ref="F19" r:id="rId14" xr:uid="{FD2C48F6-E6AA-9F4F-B63B-D930C64C1C54}"/>
-    <hyperlink ref="F21" r:id="rId15" xr:uid="{894F9686-892B-D44E-90D1-504F74ED30FE}"/>
-    <hyperlink ref="F22" r:id="rId16" xr:uid="{719E9D7C-19A6-C340-8955-CFF226C7B0E0}"/>
-    <hyperlink ref="F23" r:id="rId17" xr:uid="{325C6918-4650-0445-AEF3-1B46F32D221A}"/>
-    <hyperlink ref="F24" r:id="rId18" xr:uid="{3A34065C-CAB4-8846-BDAB-5DD61A408C0A}"/>
+    <hyperlink ref="F22" r:id="rId15" xr:uid="{894F9686-892B-D44E-90D1-504F74ED30FE}"/>
+    <hyperlink ref="F23" r:id="rId16" xr:uid="{719E9D7C-19A6-C340-8955-CFF226C7B0E0}"/>
+    <hyperlink ref="F24" r:id="rId17" xr:uid="{325C6918-4650-0445-AEF3-1B46F32D221A}"/>
+    <hyperlink ref="F25" r:id="rId18" xr:uid="{3A34065C-CAB4-8846-BDAB-5DD61A408C0A}"/>
+    <hyperlink ref="F21" r:id="rId19" xr:uid="{A5A18AAB-6E73-0443-8E3C-0BD9049DB3CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/papers/AA_KEY.xlsx
+++ b/papers/AA_KEY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexcarriero/Desktop/The/papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4837DA-4B2C-E04E-9D46-86CA1FCE3594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3073471-BB0E-C947-AFB5-37ABD382192E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4040" yWindow="500" windowWidth="24760" windowHeight="15820" xr2:uid="{69FFC4BD-2325-954D-A760-8595B1B44146}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="134">
   <si>
     <t>The harm of class imbalance corrections for risk
 prediction models: illustration and simulation using
@@ -680,6 +680,53 @@
 	title = {Calculating the sample size required for developing a clinical prediction model},
 	volume = {368},
 	year = {2020}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @article{mvauc,
+	author = {Demler, Olga V. and Pencina, Michael J. and D'Agostino Sr., Ralph B.},
+	journal = {Statistics in Medicine},
+	number = {12},
+	pages = {1410-1418},
+	title = {Equivalence of improvement in area under ROC curve and linear discriminant analysis coefficient under assumption of normality},
+	volume = {30},
+	year = {2011}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1002/sim.4196 </t>
+  </si>
+  <si>
+    <t>Equivalence of improvement in area under ROC curve and linear discriminant analysis coefficient under assumption of normality</t>
+  </si>
+  <si>
+    <t>Demler</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @article{auc_se,
+	author = {Hanley, J A and McNeil, B J},
+	journal = {Radiology},
+	number = {1},
+	pages = {29-36},
+	title = {The meaning and use of the area under a receiver operating characteristic (ROC) curve.},
+	volume = {143},
+	year = {1982}
+}</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1148/radiology.143.1.7063747</t>
+  </si>
+  <si>
+    <t>Hanley</t>
+  </si>
+  <si>
+    <t>The meaning and use of the area under a receiver operating characteristic (ROC) curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equation for SE of AUC </t>
+  </si>
+  <si>
+    <t>EQUATION FOR AUC 
+under assumption of normality for each class</t>
   </si>
 </sst>
 </file>
@@ -1159,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2216DDF6-EAC6-CC45-94D7-815B60E7F5A9}">
   <dimension ref="A1:G761"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="88" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="88" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1674,15 +1721,45 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="6"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="6"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="6"/>
+    <row r="26" spans="1:6" ht="221" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <v>2011</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="187" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
+        <v>1982</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="6"/>
@@ -3095,6 +3172,8 @@
     <hyperlink ref="F24" r:id="rId17" xr:uid="{325C6918-4650-0445-AEF3-1B46F32D221A}"/>
     <hyperlink ref="F25" r:id="rId18" xr:uid="{3A34065C-CAB4-8846-BDAB-5DD61A408C0A}"/>
     <hyperlink ref="F21" r:id="rId19" xr:uid="{A5A18AAB-6E73-0443-8E3C-0BD9049DB3CE}"/>
+    <hyperlink ref="F26" r:id="rId20" xr:uid="{611075A5-5F8F-B14F-8A24-BA4A4FE54FB5}"/>
+    <hyperlink ref="F27" r:id="rId21" xr:uid="{B036DCDB-4816-C243-A891-6C5CD4D5CA83}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/papers/AA_KEY.xlsx
+++ b/papers/AA_KEY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexcarriero/Desktop/The/papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3073471-BB0E-C947-AFB5-37ABD382192E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68E7FFE-08D2-E14A-9BB8-FB2D596EB249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4040" yWindow="500" windowWidth="24760" windowHeight="15820" xr2:uid="{69FFC4BD-2325-954D-A760-8595B1B44146}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="139">
   <si>
     <t>The harm of class imbalance corrections for risk
 prediction models: illustration and simulation using
@@ -727,6 +727,28 @@
   <si>
     <t>EQUATION FOR AUC 
 under assumption of normality for each class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ @article{ZHU2019100341,
+	author = {Bing Zhu and Zihan Gao and Junkai Zhao and Seppe K.L.M. {vanden Broucke}},
+	journal = {SoftwareX},
+	pages = {100341},
+	title = {IRIC: An R library for binary imbalanced classification},
+	volume = {10},
+	year = {2019}}</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.softx.2019.100341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhu </t>
+  </si>
+  <si>
+    <t>IRIC: An R library for binary imbalanced classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R package -- for SMOTE-ENN and Easy Ensemble implementation in r</t>
   </si>
 </sst>
 </file>
@@ -1206,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2216DDF6-EAC6-CC45-94D7-815B60E7F5A9}">
   <dimension ref="A1:G761"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="88" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="88" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1761,10 +1783,25 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="6"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="6"/>
+    <row r="28" spans="1:6" ht="170" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" s="6"/>
@@ -3174,6 +3211,7 @@
     <hyperlink ref="F21" r:id="rId19" xr:uid="{A5A18AAB-6E73-0443-8E3C-0BD9049DB3CE}"/>
     <hyperlink ref="F26" r:id="rId20" xr:uid="{611075A5-5F8F-B14F-8A24-BA4A4FE54FB5}"/>
     <hyperlink ref="F27" r:id="rId21" xr:uid="{B036DCDB-4816-C243-A891-6C5CD4D5CA83}"/>
+    <hyperlink ref="F28" r:id="rId22" xr:uid="{02A9BA41-0CE7-A042-A2BC-5C07E4DFFF71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/papers/AA_KEY.xlsx
+++ b/papers/AA_KEY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexcarriero/Desktop/The/papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68E7FFE-08D2-E14A-9BB8-FB2D596EB249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC20BFB-4151-6742-96A0-D5F7DD7D2523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="500" windowWidth="24760" windowHeight="15820" xr2:uid="{69FFC4BD-2325-954D-A760-8595B1B44146}"/>
+    <workbookView xWindow="4040" yWindow="500" windowWidth="24760" windowHeight="15760" xr2:uid="{69FFC4BD-2325-954D-A760-8595B1B44146}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1228,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2216DDF6-EAC6-CC45-94D7-815B60E7F5A9}">
   <dimension ref="A1:G761"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="88" zoomScaleNormal="114" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="88" zoomScaleNormal="114" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
